--- a/Control/Proveedor Mapping.xlsx
+++ b/Control/Proveedor Mapping.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hriti\OneDrive\Desktop\Roche_Projects\Chile_Data_Acquisition\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A96B199-C257-498A-BC7E-1F729F8A8D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42F1EA4-AD03-43EC-A414-6F0E8FA59618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$313</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="345">
   <si>
     <t>Sucursal / NombreProveedor</t>
   </si>
@@ -1057,13 +1060,16 @@
   </si>
   <si>
     <t>Zericum Spa</t>
+  </si>
+  <si>
+    <t>Novofarma - Bago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,6 +1115,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1151,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1171,6 +1184,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1451,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.109375" defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3317,207 +3331,207 @@
     </row>
     <row r="233" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>260</v>
+        <v>344</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>28</v>
+        <v>261</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>263</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>270</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>3</v>
+        <v>285</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>3</v>
@@ -3525,103 +3539,103 @@
     </row>
     <row r="259" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>288</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>291</v>
+        <v>82</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>296</v>
+        <v>164</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B270" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="4" t="s">
+    <row r="271" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>299</v>
@@ -3629,7 +3643,7 @@
     </row>
     <row r="272" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>299</v>
@@ -3637,327 +3651,331 @@
     </row>
     <row r="273" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="4" t="s">
+    <row r="277" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B277" s="3" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B279" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="4" t="s">
+    <row r="280" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B280" s="6" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>312</v>
+        <v>25</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>82</v>
+        <v>335</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>337</v>
+        <v>82</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B313" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="5"/>
-      <c r="B313" s="5"/>
     </row>
     <row r="314" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="5"/>
@@ -6707,7 +6725,12 @@
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
     </row>
+    <row r="1001" spans="1:2" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="5"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B313" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
